--- a/src/main/java/data/test data.xlsx
+++ b/src/main/java/data/test data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\IdeaProjects\ToolsQA-DemoShop-Automation_Automation_Lindokuhle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digi_WS\IdeaProjects\ToolsQA-DemoShop-Automation_Automation_-Lindokuhle-\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336982C0-8780-4EFA-8BEC-99D86604527C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C9AEE7-FF08-4B1C-B7D4-5835BEBBD3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>TC-02</t>
   </si>
   <si>
-    <t>Testing@12346</t>
-  </si>
-  <si>
     <t>TC-03</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Small</t>
+  </si>
+  <si>
+    <t>Testing@12345</t>
   </si>
 </sst>
 </file>
@@ -482,27 +482,31 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -555,15 +559,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -579,10 +583,10 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -590,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -605,24 +609,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -640,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -662,7 +666,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6AC7D015-59FB-4A72-9A10-DA5FCAD414AE}"/>
-    <hyperlink ref="C3" r:id="rId2" display="Testing@12345" xr:uid="{D5B147CA-97EE-404B-A861-0720EBF524AC}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D5B147CA-97EE-404B-A861-0720EBF524AC}"/>
     <hyperlink ref="C4" r:id="rId3" display="Testing@12345" xr:uid="{0D803DCD-8E35-4682-AD7B-AF971B74F9A2}"/>
     <hyperlink ref="I4" r:id="rId4" xr:uid="{9E6AD746-3D1A-4CAF-8CD0-88D19A4FBCAB}"/>
   </hyperlinks>

--- a/src/main/java/data/test data.xlsx
+++ b/src/main/java/data/test data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digi_WS\IdeaProjects\ToolsQA-DemoShop-Automation_Automation_-Lindokuhle-\src\main\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\IdeaProjects\ToolsQA-DemoShop-Automation_Automation_Lindokuhle\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C9AEE7-FF08-4B1C-B7D4-5835BEBBD3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15511E2B-2708-42A4-9206-F4F3B81AFF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,6 @@
     <t>Lindokuhle</t>
   </si>
   <si>
-    <t>blue sinner ripped knee high waist skinny jeans</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
     <t>Nini</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>lime snake plunge slinky cross back midi dress</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>Testing@12345</t>
+  </si>
+  <si>
+    <t>Black Cross Back Maxi Dress</t>
+  </si>
+  <si>
+    <t>black pointed toe barely there patent heels</t>
+  </si>
+  <si>
+    <t>Black</t>
   </si>
 </sst>
 </file>
@@ -482,31 +482,31 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -559,15 +559,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -583,74 +583,74 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
       <c r="F3">
         <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
       </c>
       <c r="O4">
         <v>7750</v>
@@ -659,7 +659,7 @@
         <v>612345678</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/data/test data.xlsx
+++ b/src/main/java/data/test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\IdeaProjects\ToolsQA-DemoShop-Automation_Automation_Lindokuhle\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15511E2B-2708-42A4-9206-F4F3B81AFF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD55389-E036-4FF0-99E7-1DEC3BB6C64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,14 +495,14 @@
     <col min="6" max="6" width="16.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,28 +532,28 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
@@ -634,29 +634,29 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>7750</v>
+      </c>
+      <c r="O4">
+        <v>612345678</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4">
-        <v>7750</v>
-      </c>
-      <c r="P4">
-        <v>612345678</v>
       </c>
       <c r="Q4" t="s">
         <v>24</v>
@@ -668,7 +668,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6AC7D015-59FB-4A72-9A10-DA5FCAD414AE}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{D5B147CA-97EE-404B-A861-0720EBF524AC}"/>
     <hyperlink ref="C4" r:id="rId3" display="Testing@12345" xr:uid="{0D803DCD-8E35-4682-AD7B-AF971B74F9A2}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{9E6AD746-3D1A-4CAF-8CD0-88D19A4FBCAB}"/>
+    <hyperlink ref="P4" r:id="rId4" xr:uid="{9E6AD746-3D1A-4CAF-8CD0-88D19A4FBCAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
